--- a/medicine/Psychotrope/Grand_Coude/Grand_Coude.xlsx
+++ b/medicine/Psychotrope/Grand_Coude/Grand_Coude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand Coude est un lieu-dit de l'île de La Réunion, département d'outre-mer français dans le Sud-Ouest de l'Océan Indien. Il s'agit d'un village des Hauts situé sur le territoire de Saint-Joseph, commune du Sud de l'île. Labellisé Villages Créoles, le site est entouré par la forêt appelée forêt de Grand Coude.
 Le village est situé à environ 20 minutes du centre-ville et se perche à 1200 mètres d'altitude entre la vallée de la rivière des Remparts et la vallée de la rivière Langevin.
@@ -514,7 +526,9 @@
           <t>La seule production de thé en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La particularité du village de Grand Coude réside dans sa culture de thé.
 En effet, grâce à un agriculteur du nom de Johny Guichard, le village est le seul  village de France à produire du thé.
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
